--- a/biology/Biologie cellulaire et moléculaire/Jonction_d'extrémités_non_homologues/Jonction_d'extrémités_non_homologues.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Jonction_d'extrémités_non_homologues/Jonction_d'extrémités_non_homologues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jonction_d%27extr%C3%A9mit%C3%A9s_non_homologues</t>
+          <t>Jonction_d'extrémités_non_homologues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La jonction d'extrémités non homologues (en anglais Non-Homologous End-Joining ou NHEJ) est un mécanisme de réparation de l'ADN qui permet de réparer des lésions provoquant des cassures double brin (CDB). C'est un mécanisme non-conservatif (contrairement par exemple à la réparation par recombinaison) c'est-à-dire qu'il ne restaure pas la séquence initiale de l'ADN; mais seulement la continuité de l'ADN endommagé par une cassure double brin. Cette réparation conduira ainsi au changement de l'information génétique, en général une délétion, et donc possiblement à l'apparition d'une mutation pour le gène concerné si la cassure survient à l'intérieur d'un gène.
 Cette réparation est possible grâce à l'intervention de la protéine Ku70/80 (dimère entre deux sous-unités : Ku70 et Ku80) qui va interagir avec les deux extrémités d'ADN résultant de la cassure. Cette protéine va ensuite agir par essais et erreurs pour tenter d'établir une interaction transitoire entre les deux extrémités d'ADN. Pour cela, Ku possède plusieurs activités :
